--- a/toexcel/test.xlsx
+++ b/toexcel/test.xlsx
@@ -6,13 +6,14 @@
   </bookViews>
   <sheets>
     <sheet name="People" sheetId="1" r:id="rId1"/>
+    <sheet name="In Tab" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +34,9 @@
   </si>
   <si>
     <t>Driver</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -94,6 +98,18 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="table1" displayName="table1" ref="A1:A12" headerRowCount="1" totalsRowCount="1">
+  <autoFilter ref="A1:A11"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Column1" totalsRowFunction="custom">
+      <totalsRowFormula>SUBTOTAL(102;[Column1])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C12"/>
@@ -242,4 +258,40 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <f>SUBTOTAL(102;[Column1])</f>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>